--- a/resultados/comparacao_v1_v2.xlsx
+++ b/resultados/comparacao_v1_v2.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1697614192962646</v>
+        <v>0.1762018203735352</v>
       </c>
       <c r="C2" t="n">
         <v>10250</v>
@@ -486,7 +486,7 @@
         <v>1.025</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -502,13 +502,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.533807754516602</v>
+        <v>1.565425872802734</v>
       </c>
       <c r="C3" t="n">
-        <v>21280</v>
+        <v>21200</v>
       </c>
       <c r="D3" t="n">
-        <v>1.418666666666667</v>
+        <v>1.413333333333333</v>
       </c>
       <c r="E3" t="n">
         <v>102</v>
